--- a/medicine/Handicap/Maladie_de_Roger/Maladie_de_Roger.xlsx
+++ b/medicine/Handicap/Maladie_de_Roger/Maladie_de_Roger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme maladie de Roger est fréquemment utilisé pour désigner une petite communication interventriculaire sans conséquence et autorisant une vie strictement normale. Il fait référence à Henri-Louis Roger (1809-1891), cardiologue et pédiatre français, qui, le premier, décrivit ce type de communication interventriculaire en 1879[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme maladie de Roger est fréquemment utilisé pour désigner une petite communication interventriculaire sans conséquence et autorisant une vie strictement normale. Il fait référence à Henri-Louis Roger (1809-1891), cardiologue et pédiatre français, qui, le premier, décrivit ce type de communication interventriculaire en 1879.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Conséquences</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Habituellement, une communication inter-ventriculaire de type « maladie de Roger » :
 n'entraine aucune conséquence et autorise la pratique de tout sport, y compris en compétition ;
 chez une femme, autorise la grossesse, un accouchement par voie basse et un allaitement ;
-n'aura jamais besoin d'être opérée, une proportion élevée étant même susceptible de se fermer spontanément[2] ;
+n'aura jamais besoin d'être opérée, une proportion élevée étant même susceptible de se fermer spontanément ;
 ne nécessite aucun traitement médical à visée cardiologique.</t>
         </is>
       </c>
@@ -547,10 +561,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Endocardite infectieuse
-En présence d'une maladie de Roger, la seule précaution à prendre est la prévention de l'endocardite infectieuse, complication rare mais grave. Celle-ci passe par le traitement antibiotique de toute infection liée à une bactérie et l'éradication de tout foyer infectieux chronique, tout particulièrement dentaire. À ce titre, on a coutume de dire qu'un patient porteur d'une Maladie de Roger doit consulter son dentiste plus souvent (tous les 6 mois) que son cardiologue, en le prévenant de sa maladie afin que les soins dentaires soient faits sous antibiothérapie prophylactique.
-Insufisance aortique
-Une surveillance cardiologique régulière reste cependant recommandée en raison de la possibilité qu'apparaisse au cours de l'évolution une insuffisance aortique (syndrome de Pezzi-Laubry)[3],[4]. Cette complication, rare, est la seule circonstance qui pourrait justifier la fermeture chirurgicale de telles communication interventriculaire (plus pour éviter l'aggravation de cette fuite aortique qu'en espérant la voir disparaitre).
+          <t>Endocardite infectieuse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En présence d'une maladie de Roger, la seule précaution à prendre est la prévention de l'endocardite infectieuse, complication rare mais grave. Celle-ci passe par le traitement antibiotique de toute infection liée à une bactérie et l'éradication de tout foyer infectieux chronique, tout particulièrement dentaire. À ce titre, on a coutume de dire qu'un patient porteur d'une Maladie de Roger doit consulter son dentiste plus souvent (tous les 6 mois) que son cardiologue, en le prévenant de sa maladie afin que les soins dentaires soient faits sous antibiothérapie prophylactique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maladie_de_Roger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_de_Roger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Complications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Insufisance aortique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une surveillance cardiologique régulière reste cependant recommandée en raison de la possibilité qu'apparaisse au cours de l'évolution une insuffisance aortique (syndrome de Pezzi-Laubry),. Cette complication, rare, est la seule circonstance qui pourrait justifier la fermeture chirurgicale de telles communication interventriculaire (plus pour éviter l'aggravation de cette fuite aortique qu'en espérant la voir disparaitre).
 </t>
         </is>
       </c>
